--- a/data/trans_dic/P22_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22_R2-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04274083366341117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07273111197915549</v>
+        <v>0.07273111197915551</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04307267157237277</v>
@@ -697,7 +697,7 @@
         <v>0.03282895093470813</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07322945778560346</v>
+        <v>0.07322945778560344</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03233165113317147</v>
+        <v>0.03086491780763453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01035417756309899</v>
+        <v>0.008442660789583714</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0254964274471149</v>
+        <v>0.02334681903160628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03694901525182161</v>
+        <v>0.03898385544672698</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0278852811220284</v>
+        <v>0.02693680504689571</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02643197438288038</v>
+        <v>0.02505097468041798</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01020632241988511</v>
+        <v>0.01157949997921376</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03986814194968908</v>
+        <v>0.0415070415636033</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03331174157299965</v>
+        <v>0.03367794674930884</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02037917025566172</v>
+        <v>0.02045393334792226</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02219936431804272</v>
+        <v>0.02074236302636374</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04696999747598476</v>
+        <v>0.04972551077483481</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07542023038140142</v>
+        <v>0.07298921457049602</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03447133400407981</v>
+        <v>0.03383246421270474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06905602915908393</v>
+        <v>0.06649899789291397</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1240357783834407</v>
+        <v>0.1268412958932232</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06506661723173358</v>
+        <v>0.06430560239092624</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06812574994434353</v>
+        <v>0.0671187098155597</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04132955187732067</v>
+        <v>0.04025183785006092</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1165239033708646</v>
+        <v>0.1218207510244641</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05992675866614149</v>
+        <v>0.06086384165482163</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04538360067680248</v>
+        <v>0.04431290079476368</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04750380263856197</v>
+        <v>0.04642837554199552</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1076662976914025</v>
+        <v>0.1069108347665213</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03891890944968911</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05610480899822521</v>
+        <v>0.05610480899822522</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06871028468956283</v>
@@ -833,7 +833,7 @@
         <v>0.05744534946291375</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.09423676783755044</v>
+        <v>0.09423676783755042</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0480212498111806</v>
+        <v>0.0476294584442778</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.052942894957449</v>
+        <v>0.05199308817441782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02439449470010187</v>
+        <v>0.0246817841570723</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0322122880932095</v>
+        <v>0.03133171750971425</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05001031594704927</v>
+        <v>0.05157605265148747</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03791071595229061</v>
+        <v>0.03790344786653385</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05904739549668134</v>
+        <v>0.0569094293623767</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1049684240895535</v>
+        <v>0.1017845906514699</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05451311538883288</v>
+        <v>0.05420930772815604</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04981016773067359</v>
+        <v>0.04970702646881647</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04481598014236073</v>
+        <v>0.04448563247289535</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07683893550015679</v>
+        <v>0.07583327638754626</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08432236691914945</v>
+        <v>0.08494940309529436</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09162469941950968</v>
+        <v>0.09210923925566845</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05640800414552167</v>
+        <v>0.05896578399570127</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09099935443451508</v>
+        <v>0.08770178728493894</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09031941578457675</v>
+        <v>0.0910686484512416</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07581680710367074</v>
+        <v>0.07387648842674517</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1014953472334973</v>
+        <v>0.1027381782116705</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1663373474861306</v>
+        <v>0.1666001715753547</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08242235409256872</v>
+        <v>0.0804571751366938</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07667258884950616</v>
+        <v>0.07647216747636333</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07257995092163887</v>
+        <v>0.07269621566227073</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1182834827117925</v>
+        <v>0.1183909050037224</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07708679467514</v>
+        <v>0.0761663778781454</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05280437328511511</v>
+        <v>0.05275845610989572</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03712933129141854</v>
+        <v>0.03762866309557004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0944744962446394</v>
+        <v>0.0979644877195497</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04107425160995169</v>
+        <v>0.04211717091137193</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03582646921256692</v>
+        <v>0.03580300599414003</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03568820489128542</v>
+        <v>0.03833203807987922</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08935280632621981</v>
+        <v>0.08653523442818721</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06359552017549246</v>
+        <v>0.06321852443364921</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04877372284412927</v>
+        <v>0.04894192170852877</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03988501231447122</v>
+        <v>0.04126210161628334</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09864148219422138</v>
+        <v>0.1000729923562876</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1255623508593897</v>
+        <v>0.1256357683822359</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09384049907797751</v>
+        <v>0.09212284486277922</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07455768551275546</v>
+        <v>0.0717336756946281</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1523846184690742</v>
+        <v>0.1578782531999087</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07723698908227043</v>
+        <v>0.08054451719766589</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07186085567240066</v>
+        <v>0.07031946935033009</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0729686092647953</v>
+        <v>0.07500982624769986</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1288346548928844</v>
+        <v>0.1310800351764273</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09459076485453834</v>
+        <v>0.09425326891108206</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07454915918851764</v>
+        <v>0.07394247286244272</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06499676149685996</v>
+        <v>0.06570553818654336</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1339118067097214</v>
+        <v>0.1352186573611967</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0503424396302965</v>
+        <v>0.04855909892407758</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03262175551607593</v>
+        <v>0.03227709419168123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02700456076236431</v>
+        <v>0.02659866413595171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1059415063327573</v>
+        <v>0.1060890728139359</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03482159894343895</v>
+        <v>0.0363184236417776</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03294536439735466</v>
+        <v>0.03227696742031099</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02496431741965324</v>
+        <v>0.02586093183364192</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1157801102588197</v>
+        <v>0.1165089930643872</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04891029507838141</v>
+        <v>0.04763950416432369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03727041815323639</v>
+        <v>0.03734912045565899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02989379805480304</v>
+        <v>0.03090839714031236</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1188196721761151</v>
+        <v>0.1184542180602616</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09634722327013562</v>
+        <v>0.09653177365897141</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0702538485510992</v>
+        <v>0.0686406146241237</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06208495106010437</v>
+        <v>0.06038395455491923</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.159780920279297</v>
+        <v>0.1604176728625654</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07663227293714676</v>
+        <v>0.07949136237745454</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07389020923775486</v>
+        <v>0.07201761864374089</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05564723951326929</v>
+        <v>0.05837081185392336</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1570588407316346</v>
+        <v>0.1578637229051635</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08077933811893967</v>
+        <v>0.08073783539359822</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06333775618452267</v>
+        <v>0.0648434022356482</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05244050685460401</v>
+        <v>0.05396965005781158</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1524223558794735</v>
+        <v>0.1508091680517954</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05986358066877719</v>
+        <v>0.05806835313096221</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01273765622764015</v>
+        <v>0.01298656038465395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008804773093738451</v>
+        <v>0.008959267028317177</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08781981166810056</v>
+        <v>0.08743979375213287</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04911157185370311</v>
+        <v>0.04926602144261796</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02189452288679481</v>
+        <v>0.02271082883799864</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02785143259063351</v>
+        <v>0.02887885994870807</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1027285943347157</v>
+        <v>0.1017416700897734</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05914466211338416</v>
+        <v>0.05994333467629488</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02048877265549049</v>
+        <v>0.0217073082273286</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02146021148578064</v>
+        <v>0.02082422856864549</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1016434351000404</v>
+        <v>0.1000301468189594</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1189486759028773</v>
+        <v>0.1170109967532331</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04842979341878551</v>
+        <v>0.05287708894830335</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03323613311952853</v>
+        <v>0.03376822677241248</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1369859292858924</v>
+        <v>0.1348767718362653</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1056090974182858</v>
+        <v>0.1025687477510889</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06276334272785082</v>
+        <v>0.06136583219968011</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06902771373608906</v>
+        <v>0.06784912829185756</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1470866396137778</v>
+        <v>0.1437802992682043</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09761363135569914</v>
+        <v>0.09936234044617087</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0485929341800603</v>
+        <v>0.04775573654309773</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0461589638273228</v>
+        <v>0.04507726661898184</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1344284537630808</v>
+        <v>0.1324349394677427</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.0241553618439991</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08093943110852328</v>
+        <v>0.08093943110852329</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02825625876297106</v>
@@ -1377,7 +1377,7 @@
         <v>0.0209948127114089</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.08705378156219988</v>
+        <v>0.08705378156219989</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0112910036477177</v>
+        <v>0.009611050121010397</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007134350766104605</v>
+        <v>0.00931465708585094</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006268100329984602</v>
+        <v>0.005887112398037155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06995151256142984</v>
+        <v>0.07377125412622422</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01653301899368987</v>
+        <v>0.01611649124337465</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01357484964388209</v>
+        <v>0.01400319463682116</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0109301167836177</v>
+        <v>0.01096447827107953</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06407974391852875</v>
+        <v>0.06113505239216373</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01799221141055542</v>
+        <v>0.01753538130819106</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01466524640308258</v>
+        <v>0.01498161372451853</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01183028396684208</v>
+        <v>0.01195143219645376</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07358203536010331</v>
+        <v>0.07232138159926702</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05019239755423762</v>
+        <v>0.05079969756935868</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04956194190204379</v>
+        <v>0.05252609187493806</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04113114769114487</v>
+        <v>0.04368934471020334</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1212221055485907</v>
+        <v>0.1231705358025708</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05531444450726763</v>
+        <v>0.05463564905119692</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05100036546144419</v>
+        <v>0.05200373565876785</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04541646078556133</v>
+        <v>0.04735989087464321</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1008137199918462</v>
+        <v>0.1016375806844977</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04560345545462499</v>
+        <v>0.04379133386902777</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04102367136434484</v>
+        <v>0.04236125967294743</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03667211121970444</v>
+        <v>0.03627897771064356</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1021430805940248</v>
+        <v>0.1041851155967736</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.01805776706440594</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05073603896996859</v>
+        <v>0.0507360389699686</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.01629024526121721</v>
@@ -1501,7 +1501,7 @@
         <v>0.02426697337677949</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04674125822058713</v>
+        <v>0.04674125822058712</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.01735693593638394</v>
@@ -1513,7 +1513,7 @@
         <v>0.02183403616421812</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04834059058640695</v>
+        <v>0.04834059058640694</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004549273874544023</v>
+        <v>0.004512083450976754</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004186719198964669</v>
+        <v>0.004177803586360756</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006058969761905267</v>
+        <v>0.006023410478592183</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03314889348046225</v>
+        <v>0.03041509547912852</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.005983912963969423</v>
+        <v>0.005545718311859453</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.005412519662078321</v>
+        <v>0.005442045680100674</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.009464574435095458</v>
+        <v>0.009010931030079061</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03461354372388817</v>
+        <v>0.03420685263509188</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00773227011029992</v>
+        <v>0.008065441716350021</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.008164059297999474</v>
+        <v>0.006695477875463867</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01106275977160782</v>
+        <v>0.01110246597960184</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03681554863609336</v>
+        <v>0.03648109603210468</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04910188176579174</v>
+        <v>0.04694073765642059</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05464912517601532</v>
+        <v>0.05488304384824497</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03926829893109194</v>
+        <v>0.03929819692522529</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07384086059211667</v>
+        <v>0.07212963269080833</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03337701336813102</v>
+        <v>0.03549440978295316</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02766962635868552</v>
+        <v>0.03040997712413223</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05055002865491351</v>
+        <v>0.05071044265610584</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06245378144552698</v>
+        <v>0.06111677458016681</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03068669402877327</v>
+        <v>0.03130338337039027</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02877965491371347</v>
+        <v>0.02853492554032813</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03993444732392247</v>
+        <v>0.04009891695602316</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06197041440679563</v>
+        <v>0.06086295537966722</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0572652960795984</v>
+        <v>0.05792459388754227</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03887494816695725</v>
+        <v>0.03867836304736937</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02989264323815752</v>
+        <v>0.02984100335406962</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08764159241437497</v>
+        <v>0.08687208256015291</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0445786863457087</v>
+        <v>0.0447481572945548</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03563517804551721</v>
+        <v>0.03558986943387049</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03601069197257735</v>
+        <v>0.03656328593503212</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.09613915781541785</v>
+        <v>0.09678792426880536</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05313381621879094</v>
+        <v>0.05351136389692574</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03919390540770182</v>
+        <v>0.03922843863669839</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03445598614229694</v>
+        <v>0.03501396697984251</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.09442724609569607</v>
+        <v>0.09457583715678379</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07456558338251881</v>
+        <v>0.07476471847284798</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05336189745868819</v>
+        <v>0.05378243047157579</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04308100038530849</v>
+        <v>0.04293953625114672</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1095797820433328</v>
+        <v>0.1104252881558809</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06109015424158237</v>
+        <v>0.06093849432239743</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04958403618474268</v>
+        <v>0.04962583180756835</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05050615515471463</v>
+        <v>0.05075870088730332</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1136152795117236</v>
+        <v>0.1145618996630344</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06497812125735823</v>
+        <v>0.06526888824248757</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04966805321172874</v>
+        <v>0.04949602102983668</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0443372628375519</v>
+        <v>0.04465625449228621</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.108635376093873</v>
+        <v>0.1092147537039077</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15944</v>
+        <v>15221</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4692</v>
+        <v>3826</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10648</v>
+        <v>9750</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15068</v>
+        <v>15897</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13036</v>
+        <v>12593</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11372</v>
+        <v>10778</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4039</v>
+        <v>4583</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14453</v>
+        <v>15047</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32000</v>
+        <v>32352</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>18003</v>
+        <v>18069</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18056</v>
+        <v>16871</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>36181</v>
+        <v>38304</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37193</v>
+        <v>35994</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15621</v>
+        <v>15332</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28839</v>
+        <v>27771</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>50581</v>
+        <v>51725</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30418</v>
+        <v>30062</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29310</v>
+        <v>28876</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16356</v>
+        <v>15930</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>42241</v>
+        <v>44161</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>57567</v>
+        <v>58467</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40092</v>
+        <v>39146</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>38638</v>
+        <v>37763</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>82936</v>
+        <v>82354</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35199</v>
+        <v>34912</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36376</v>
+        <v>35724</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14405</v>
+        <v>14574</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15362</v>
+        <v>14942</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>31281</v>
+        <v>32261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23135</v>
+        <v>23131</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>33166</v>
+        <v>31965</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>52554</v>
+        <v>50960</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>74055</v>
+        <v>73642</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>64621</v>
+        <v>64487</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>51636</v>
+        <v>51256</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>75114</v>
+        <v>74131</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61807</v>
+        <v>62266</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>62954</v>
+        <v>63287</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33309</v>
+        <v>34819</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43397</v>
+        <v>41824</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>56494</v>
+        <v>56963</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>46268</v>
+        <v>45083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>57009</v>
+        <v>57707</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>83279</v>
+        <v>83411</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>111969</v>
+        <v>109299</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>99471</v>
+        <v>99211</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>83625</v>
+        <v>83759</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>115629</v>
+        <v>115734</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>49233</v>
+        <v>48645</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36005</v>
+        <v>35974</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24808</v>
+        <v>25142</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>58653</v>
+        <v>60820</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28331</v>
+        <v>29050</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25467</v>
+        <v>25451</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23604</v>
+        <v>25352</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>55684</v>
+        <v>53928</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>84481</v>
+        <v>83980</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>67928</v>
+        <v>68162</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>53029</v>
+        <v>54860</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>122713</v>
+        <v>124494</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>80193</v>
+        <v>80240</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63986</v>
+        <v>62815</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49817</v>
+        <v>47930</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>94606</v>
+        <v>98017</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>53274</v>
+        <v>55555</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>51082</v>
+        <v>49987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48260</v>
+        <v>49610</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>80289</v>
+        <v>81688</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>125656</v>
+        <v>125207</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>103826</v>
+        <v>102981</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>86416</v>
+        <v>87359</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>166590</v>
+        <v>168216</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26078</v>
+        <v>25154</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20050</v>
+        <v>19838</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17446</v>
+        <v>17184</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>74224</v>
+        <v>74328</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17914</v>
+        <v>18684</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20301</v>
+        <v>19889</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16179</v>
+        <v>16760</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>85317</v>
+        <v>85854</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>50499</v>
+        <v>49187</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>45873</v>
+        <v>45970</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38687</v>
+        <v>40000</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>170804</v>
+        <v>170278</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>49909</v>
+        <v>50005</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43179</v>
+        <v>42188</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40110</v>
+        <v>39011</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>111945</v>
+        <v>112391</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39424</v>
+        <v>40895</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>45531</v>
+        <v>44377</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36065</v>
+        <v>37830</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>115734</v>
+        <v>116328</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>83403</v>
+        <v>83360</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>77957</v>
+        <v>79810</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>67866</v>
+        <v>69845</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>219108</v>
+        <v>216789</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23150</v>
+        <v>22456</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5470</v>
+        <v>5577</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4189</v>
+        <v>4263</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>53513</v>
+        <v>53281</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19799</v>
+        <v>19861</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9804</v>
+        <v>10170</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13838</v>
+        <v>14348</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>62473</v>
+        <v>61872</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>46715</v>
+        <v>47346</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>17973</v>
+        <v>19042</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>20873</v>
+        <v>20254</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>123749</v>
+        <v>121785</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>45999</v>
+        <v>45249</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20797</v>
+        <v>22707</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15813</v>
+        <v>16066</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>83472</v>
+        <v>82187</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42575</v>
+        <v>41349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>28105</v>
+        <v>27480</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34296</v>
+        <v>33711</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>89448</v>
+        <v>87438</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>77100</v>
+        <v>78481</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>42627</v>
+        <v>41893</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>44896</v>
+        <v>43844</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>163664</v>
+        <v>161237</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3304</v>
+        <v>2812</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2210</v>
+        <v>2886</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2096</v>
+        <v>1968</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>28476</v>
+        <v>30031</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5670</v>
+        <v>5527</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4805</v>
+        <v>4957</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4110</v>
+        <v>4123</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>28142</v>
+        <v>26848</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11434</v>
+        <v>11144</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>9735</v>
+        <v>9945</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8404</v>
+        <v>8490</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>62269</v>
+        <v>61202</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14685</v>
+        <v>14863</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15354</v>
+        <v>16272</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13751</v>
+        <v>14607</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>49347</v>
+        <v>50140</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18969</v>
+        <v>18736</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>18054</v>
+        <v>18409</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17079</v>
+        <v>17810</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>44274</v>
+        <v>44636</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>28982</v>
+        <v>27830</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>27231</v>
+        <v>28119</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>26052</v>
+        <v>25772</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>86438</v>
+        <v>88166</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>10283</v>
+        <v>9435</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1998</v>
+        <v>1852</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2105</v>
+        <v>2117</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3775</v>
+        <v>3594</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>16082</v>
+        <v>15893</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4191</v>
+        <v>4371</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>5215</v>
+        <v>4277</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>7256</v>
+        <v>7282</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>28525</v>
+        <v>28266</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10215</v>
+        <v>9766</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13654</v>
+        <v>13713</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10092</v>
+        <v>10100</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>22905</v>
+        <v>22374</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11145</v>
+        <v>11852</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>10763</v>
+        <v>11829</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>20164</v>
+        <v>20228</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>29017</v>
+        <v>28395</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>16631</v>
+        <v>16965</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>18385</v>
+        <v>18229</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>26193</v>
+        <v>26301</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>48015</v>
+        <v>47157</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>187265</v>
+        <v>189421</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>133178</v>
+        <v>132504</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>101319</v>
+        <v>101144</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>309617</v>
+        <v>306898</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>150550</v>
+        <v>151122</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>126801</v>
+        <v>126640</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>127432</v>
+        <v>129388</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>359096</v>
+        <v>361519</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>353197</v>
+        <v>355706</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>273734</v>
+        <v>273976</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>238717</v>
+        <v>242583</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>686290</v>
+        <v>687370</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>243840</v>
+        <v>244491</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>182807</v>
+        <v>184248</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>146020</v>
+        <v>145541</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>387119</v>
+        <v>390106</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>206312</v>
+        <v>205800</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>176435</v>
+        <v>176584</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>178728</v>
+        <v>179622</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>424372</v>
+        <v>427908</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>431929</v>
+        <v>433862</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>346887</v>
+        <v>345686</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>307176</v>
+        <v>309386</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>789554</v>
+        <v>793765</v>
       </c>
     </row>
     <row r="36">
